--- a/Data/testDataUS.xlsx
+++ b/Data/testDataUS.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CA077-16A1-4621-961C-3C11F222CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -280,54 +294,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="14"/>
       <color rgb="FF040C28"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="14"/>
       <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="14"/>
       <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="14"/>
       <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="14"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -339,13 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,8 +384,12 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -381,15 +399,25 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,7 +428,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,9 +445,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -788,22 +824,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="AT1" sqref="AT1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" customWidth="1"/>
+    <col min="23" max="23" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="36" customHeight="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -993,8 +1029,8 @@
         <v>58</v>
       </c>
       <c r="J2" s="13">
-        <f>TODAY()-31</f>
-        <v>45534</v>
+        <f ca="1">TODAY()-31</f>
+        <v>45549</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>52</v>
@@ -1030,12 +1066,12 @@
         <v>58</v>
       </c>
       <c r="V2" s="18">
-        <f>J2</f>
-        <v>45534</v>
+        <f ca="1">J2</f>
+        <v>45549</v>
       </c>
       <c r="W2" s="13">
-        <f>TODAY()+20</f>
-        <v>45585</v>
+        <f ca="1">TODAY()+20</f>
+        <v>45600</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>64</v>
@@ -1129,22 +1165,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
-      <formula1>INDIRECT($E2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>INDIRECT($E2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
-      <formula1>INDIRECT($E2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 X2 U2 R2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/testDataUS.xlsx
+++ b/Data/testDataUS.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CA077-16A1-4621-961C-3C11F222CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -192,10 +178,10 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Ruecker</t>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Robel</t>
   </si>
   <si>
     <t>(202) 555-0147</t>
@@ -259,9 +245,6 @@
   </si>
   <si>
     <t>121 Walden Galleria</t>
-  </si>
-  <si>
-    <t>Initial Step - CGM</t>
   </si>
   <si>
     <t>Social Security Number (SSN)</t>
@@ -294,54 +277,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF040C28"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color rgb="FF040C28"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
+      <color theme="10"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF4A4A4A"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color rgb="FF4A4A4A"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color indexed="8"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -353,13 +336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,12 +367,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -399,25 +378,15 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -428,9 +397,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -445,15 +412,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -463,19 +424,17 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,32 +783,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" customWidth="1"/>
-    <col min="23" max="23" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" customWidth="1"/>
+    <col min="13" max="14" width="15.26953125" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" customWidth="1"/>
+    <col min="16" max="16" width="5.26953125" customWidth="1"/>
+    <col min="17" max="17" width="6.90625" customWidth="1"/>
+    <col min="18" max="18" width="6.453125" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" customWidth="1"/>
+    <col min="20" max="20" width="16.81640625" customWidth="1"/>
+    <col min="21" max="21" width="6.453125" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="9.6328125" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" customWidth="1"/>
+    <col min="27" max="27" width="12.08984375" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="29" width="10.54296875" customWidth="1"/>
+    <col min="30" max="30" width="16.08984375" customWidth="1"/>
+    <col min="31" max="31" width="28.453125" customWidth="1"/>
+    <col min="32" max="32" width="32.7265625" customWidth="1"/>
+    <col min="33" max="33" width="12.08984375" customWidth="1"/>
+    <col min="34" max="34" width="25.453125" customWidth="1"/>
+    <col min="35" max="35" width="13.453125" customWidth="1"/>
+    <col min="36" max="36" width="13.81640625" customWidth="1"/>
+    <col min="37" max="37" width="23" customWidth="1"/>
+    <col min="38" max="38" width="15.08984375" customWidth="1"/>
+    <col min="39" max="39" width="6.26953125" customWidth="1"/>
+    <col min="40" max="40" width="11.26953125" customWidth="1"/>
+    <col min="41" max="41" width="19.81640625" customWidth="1"/>
+    <col min="42" max="42" width="14.1796875" customWidth="1"/>
+    <col min="43" max="43" width="9.453125" customWidth="1"/>
+    <col min="44" max="44" width="14.26953125" customWidth="1"/>
+    <col min="45" max="45" width="17.90625" customWidth="1"/>
+    <col min="46" max="46" width="18.08984375" customWidth="1"/>
+    <col min="47" max="47" width="21.54296875" customWidth="1"/>
+    <col min="48" max="48" width="8" customWidth="1"/>
+    <col min="49" max="49" width="39" customWidth="1"/>
+    <col min="50" max="50" width="19.453125" customWidth="1"/>
+    <col min="51" max="51" width="29" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" customWidth="1"/>
+    <col min="53" max="53" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -858,55 +864,55 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="X1" s="4" t="s">
@@ -918,89 +924,89 @@
       <c r="Z1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AP1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="36" customHeight="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1029,8 +1035,8 @@
         <v>58</v>
       </c>
       <c r="J2" s="13">
-        <f ca="1">TODAY()-31</f>
-        <v>45549</v>
+        <f>TODAY()-31</f>
+        <v>45551</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>52</v>
@@ -1066,12 +1072,12 @@
         <v>58</v>
       </c>
       <c r="V2" s="18">
-        <f ca="1">J2</f>
-        <v>45549</v>
+        <f>J2</f>
+        <v>45551</v>
       </c>
       <c r="W2" s="13">
-        <f ca="1">TODAY()+20</f>
-        <v>45600</v>
+        <f>TODAY()+20</f>
+        <v>45602</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>64</v>
@@ -1119,19 +1125,19 @@
         <v>76</v>
       </c>
       <c r="AM2" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AN2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="AO2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="26">
+        <v>968221814</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="AP2" s="26">
-        <v>968121819</v>
-      </c>
-      <c r="AQ2" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="AR2" s="27">
         <v>35591</v>
@@ -1140,38 +1146,47 @@
         <v>52</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="AV2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AY2" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="AY2" s="28" t="s">
+      <c r="AZ2" t="s">
         <v>84</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" s="29" t="s">
         <v>85</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 X2 U2 R2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>INDIRECT($E2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+      <formula1>INDIRECT($E2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+      <formula1>INDIRECT($E2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/testDataUS.xlsx
+++ b/Data/testDataUS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7CA077-16A1-4621-961C-3C11F222CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F0A53-F6DD-4283-9037-09D15A733B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="93">
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>TestStatus</t>
+  </si>
   <si>
     <t>TestCaseID</t>
   </si>
@@ -174,10 +180,10 @@
     <t>ProposedPayGroupFinal</t>
   </si>
   <si>
-    <t>EmployeeID</t>
-  </si>
-  <si>
-    <t>TestStatus</t>
+    <t>{"name":"TimeoutError"}</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
   <si>
     <t>Testone</t>
@@ -192,10 +198,10 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Ruecker</t>
+    <t>Annalise</t>
+  </si>
+  <si>
+    <t>Witting</t>
   </si>
   <si>
     <t>(202) 555-0147</t>
@@ -285,10 +291,22 @@
     <t>USA Pay Group</t>
   </si>
   <si>
-    <t>{"name":"TimeoutError"}</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>Abshire</t>
+  </si>
+  <si>
+    <t>Burnice</t>
+  </si>
+  <si>
+    <t>Grady</t>
+  </si>
+  <si>
+    <t>Willow</t>
+  </si>
+  <si>
+    <t>Wolf</t>
   </si>
 </sst>
 </file>
@@ -481,6 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -544,7 +563,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,43 +843,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" customWidth="1"/>
-    <col min="23" max="23" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" customWidth="1"/>
+    <col min="25" max="25" width="23.77734375" customWidth="1"/>
+    <col min="44" max="44" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -871,13 +890,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -892,36 +911,36 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="AC1" s="2" t="s">
@@ -939,13 +958,13 @@
       <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AK1" s="2" t="s">
@@ -963,13 +982,13 @@
       <c r="AO1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AS1" s="2" t="s">
@@ -993,185 +1012,680 @@
       <c r="AY1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="14">
         <f ca="1">TODAY()-31</f>
-        <v>45549</v>
-      </c>
-      <c r="K2" s="8" t="s">
+        <v>45550</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>21201</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="19">
+        <f ca="1">L2</f>
+        <v>45550</v>
+      </c>
+      <c r="Y2" s="14">
+        <f ca="1">TODAY()+20</f>
+        <v>45601</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="24">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="27">
+        <v>968122443</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT2" s="28">
+        <v>35591</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA2" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="L3" s="14">
+        <f ca="1">TODAY()-31</f>
+        <v>45550</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>21201</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="19">
+        <f ca="1">L3</f>
+        <v>45550</v>
+      </c>
+      <c r="Y3" s="14">
+        <f ca="1">TODAY()+20</f>
+        <v>45601</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" s="27">
+        <v>968121490</v>
+      </c>
+      <c r="AS3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT3" s="28">
+        <v>35591</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA3" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="15">
+      <c r="K4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="14">
+        <f ca="1">TODAY()-31</f>
+        <v>45550</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="16">
         <v>21201</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="R4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="19">
+        <f ca="1">L4</f>
+        <v>45550</v>
+      </c>
+      <c r="Y4" s="14">
+        <f ca="1">TODAY()+20</f>
+        <v>45601</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="24">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="25">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR4" s="27">
+        <v>968124244</v>
+      </c>
+      <c r="AS4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT4" s="28">
+        <v>35591</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA4" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="14">
+        <f ca="1">TODAY()-31</f>
+        <v>45550</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="O5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="17" t="s">
+      <c r="Q5" s="16">
+        <v>21201</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="18">
-        <f ca="1">J2</f>
-        <v>45549</v>
-      </c>
-      <c r="W2" s="13">
+      <c r="S5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="19">
+        <f ca="1">L5</f>
+        <v>45550</v>
+      </c>
+      <c r="Y5" s="14">
         <f ca="1">TODAY()+20</f>
-        <v>45600</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="21" t="s">
+        <v>45601</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" s="24">
         <v>121</v>
       </c>
-      <c r="AD2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="24">
+      <c r="AF5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" s="25">
         <v>10</v>
       </c>
-      <c r="AF2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="21" t="s">
+      <c r="AK5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AN2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AN5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="26">
-        <v>968121819</v>
-      </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AO5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="27">
+      <c r="AP5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR5" s="27">
+        <v>968144234</v>
+      </c>
+      <c r="AS5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT5" s="28">
         <v>35591</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AU5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AW5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AY2" s="28" t="s">
+      <c r="AY5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AZ5" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BA5" s="29" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 X2 U2 R2" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>INDIRECT($E2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5 Z2:Z5 W2:W5 T2:T5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/testDataUS.xlsx
+++ b/Data/testDataUS.xlsx
@@ -178,10 +178,10 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Tara</t>
-  </si>
-  <si>
-    <t>Robel</t>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>Lowe</t>
   </si>
   <si>
     <t>(202) 555-0147</t>
@@ -787,7 +787,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="AP2" sqref="AP2"/>
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="J2" s="13">
         <f>TODAY()-31</f>
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>52</v>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="V2" s="18">
         <f>J2</f>
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="W2" s="13">
         <f>TODAY()+20</f>
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>64</v>
@@ -1134,7 +1134,8 @@
         <v>77</v>
       </c>
       <c r="AP2" s="26">
-        <v>968221814</v>
+        <f t="array" ref="AP2">_xlfn.RANDARRAY(1,1,123456789,999999999,FALSE)</f>
+        <v>601816286.1566352</v>
       </c>
       <c r="AQ2" s="21" t="s">
         <v>78</v>
